--- a/HPA/paymentMethod.xlsx
+++ b/HPA/paymentMethod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
@@ -17,43 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>FirstUserName</t>
-  </si>
-  <si>
-    <t>LastUserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ConfirmPassword</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Slug</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>candidate_WorkHistory</t>
-  </si>
-  <si>
-    <t>candidate_references</t>
-  </si>
-  <si>
-    <t>candidate_media</t>
-  </si>
-  <si>
-    <t>candidate_education</t>
-  </si>
-  <si>
-    <t>candidate_about</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>sfd</t>
   </si>
@@ -94,12 +58,6 @@
     <t>xcvbnm</t>
   </si>
   <si>
-    <t>yaser</t>
-  </si>
-  <si>
-    <t>bio|word1|word|word3</t>
-  </si>
-  <si>
     <t>a,b,c,d,e,f,g,h|1,2,3,4,5,6,7,8</t>
   </si>
   <si>
@@ -110,6 +68,39 @@
   </si>
   <si>
     <t>a,b,c,d,e,f,g,h,i|1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ExpirationMonth</t>
+  </si>
+  <si>
+    <t>ExpirationYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CardSecurityCode</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
   </si>
 </sst>
 </file>
@@ -448,140 +439,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>453</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>234567</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
